--- a/biology/Médecine/Canalicule_tympanique/Canalicule_tympanique.xlsx
+++ b/biology/Médecine/Canalicule_tympanique/Canalicule_tympanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canalicule tympanique (ou canal tympanique ou canal de Jacobson) est un petit canal creusé dans l'os pétreux.
 Il s'ouvre en bas sur la crête entre la fosse jugulaire et l'ouverture externe du canal carotidien.
